--- a/CompCars_Original/ResNet/wronglyClassifications/Data_Full_EigenGradCAM_ResNet_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/ResNet/wronglyClassifications/Data_Full_EigenGradCAM_ResNet_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.1419463564698988</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.1411456447827864</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.2113817561266552</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2113528902564228</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.141946027390751</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.00665767341812732</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006659993825046995</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.006456454447020714</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.006432442574823869</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006657399675940725</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.006498782955678566</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.006505130169574331</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.005948370940151881</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.006433347010852696</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.006504311821106195</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.005258232110162324</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.005260301784139301</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.00507875597404042</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.005018439951043153</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.005257544490309661</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005842053342606795</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.005846967698521806</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.005415894623423441</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.005368501688343993</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.005841513049639557</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.007019128364340758</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.007026828508768831</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.006351394129429924</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.006254286631330937</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.007018021311186101</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.007720166325376408</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.00772634801442156</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.007184108145744481</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.007115189414089891</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.007719380632193225</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.4138252088563234</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.4142200627704428</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.3795846204220312</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.3842117472166995</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.4138779594205464</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.03520440817039838</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.03521745590643219</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.03407294627130896</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.03767593830872763</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.03524548330650335</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.003296528783426555</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.003300343318085161</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.002965743379906312</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.002906841171539725</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.003295857281463627</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.03636223122320526</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.03640668461657743</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.03250736163084775</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.0317256130547582</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.03635331906663393</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.002863048018634564</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.00286803833392288</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.00243030232248192</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.002408152642799054</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.00286279550597337</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.02066177539368868</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.02068972693324963</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.01823789879531448</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.01791762229200345</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.02065812415026981</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.298431502809502</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.2988229366477501</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.2644874934545931</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2578173050301378</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.2983554607604122</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.0007022638026556008</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.0007017613235350136</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.0007458373374480864</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.0008068737401877344</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.0007029596350426429</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.0002289160685285511</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.0002274866528636059</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.0003528708572103666</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.0003142516160862272</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.0002284757981729765</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0003593874069431348</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.0003613030536958869</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0001932680658377147</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0001920140749707057</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0003593731110898546</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.007119888642517205</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.007011027156425189</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.01656004159106214</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.01604577153866169</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.007114025817349207</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>2.447468626316154e-06</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>1.958084473639319e-06</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>4.488544570811468e-05</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>2.76590503578107e-06</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1.967293858282351e-06</v>
       </c>
     </row>
